--- a/data/R2F Quant Weekly.xlsx
+++ b/data/R2F Quant Weekly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birgitp/Box/Rise 2 Flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499F62AB-4D12-6447-9723-EA47737EC05B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31352B01-D406-354C-9CF2-3F905249501C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2980" yWindow="460" windowWidth="25820" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="65">
   <si>
     <t>Timestamp</t>
   </si>
@@ -172,9 +172,6 @@
     <t>dolphins</t>
   </si>
   <si>
-    <t>10/4/0202</t>
-  </si>
-  <si>
     <t>Wonder Women</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
   </si>
   <si>
     <t>Inspiration2020</t>
-  </si>
-  <si>
-    <t>10/11/0020</t>
   </si>
   <si>
     <t>ElenaJ</t>
@@ -197,9 +191,6 @@
   </si>
   <si>
     <t>kdolphins92</t>
-  </si>
-  <si>
-    <t>11/11/1109</t>
   </si>
   <si>
     <t xml:space="preserve">Zaus20 </t>
@@ -499,11 +490,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H302"/>
+  <dimension ref="A1:H300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -516,25 +507,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -955,129 +946,129 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
-        <v>44115.867161331014</v>
+        <v>44101.855423587964</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="4">
-        <v>44115</v>
+        <v>44101</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
-        <v>44115.911199652779</v>
+        <v>44103.308409293983</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="4">
-        <v>44115</v>
+        <v>44101</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
-        <v>44101.855423587964</v>
+        <v>44108.934978379628</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="4">
-        <v>44101</v>
+        <v>44107</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
-        <v>44103.308409293983</v>
+        <v>44115.867161331014</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="4">
-        <v>44101</v>
+        <v>44115</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
-        <v>44108.934978379628</v>
+        <v>44115.911199652779</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="4">
-        <v>44107</v>
+        <v>44115</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>2</v>
@@ -1142,8 +1133,8 @@
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>54</v>
+      <c r="C25" s="4">
+        <v>44115</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>3</v>
@@ -1319,25 +1310,25 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
-        <v>44123.553985972219</v>
+        <v>44105.976823993056</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="4">
-        <v>44123</v>
+        <v>44105</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>9</v>
@@ -1345,25 +1336,25 @@
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
-        <v>44130.408529837965</v>
+        <v>44108.916345300924</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="4">
-        <v>44130</v>
+        <v>44108</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>9</v>
@@ -1371,51 +1362,51 @@
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
-        <v>44137.734021805554</v>
+        <v>44116.881802476855</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="4">
-        <v>44137</v>
+        <v>44116</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
-        <v>44151.449209791666</v>
+        <v>44123.553985972219</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>34289</v>
+        <v>44123</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>9</v>
@@ -1423,19 +1414,19 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
-        <v>44165.518996851853</v>
+        <v>44130.408529837965</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C36" s="4">
-        <v>44165</v>
+        <v>44130</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>9</v>
@@ -1449,19 +1440,19 @@
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
-        <v>44172.879015150465</v>
+        <v>44137.734021805554</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="4">
-        <v>44171</v>
+        <v>44137</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>9</v>
@@ -1470,24 +1461,24 @@
         <v>9</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
-        <v>44177.912437476851</v>
+        <v>44151.449209791666</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="4">
-        <v>44177</v>
+        <v>44151</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>9</v>
@@ -1501,25 +1492,25 @@
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
-        <v>44105.976823993056</v>
+        <v>44160.696596215275</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="4">
-        <v>44105</v>
+        <v>44155</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>9</v>
@@ -1527,25 +1518,25 @@
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
-        <v>44108.916345300924</v>
+        <v>44165.518996851853</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="4">
-        <v>44108</v>
+        <v>44165</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>9</v>
@@ -1553,45 +1544,45 @@
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
-        <v>44116.881802476855</v>
+        <v>44172.879015150465</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C41" s="4">
-        <v>44116</v>
+        <v>44171</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
-        <v>44160.696596215275</v>
+        <v>44177.912437476851</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C42" s="4">
-        <v>44155</v>
+        <v>44177</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>9</v>
@@ -1636,8 +1627,8 @@
       <c r="B44" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>50</v>
+      <c r="C44" s="4">
+        <v>44108</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>2</v>
@@ -1657,48 +1648,48 @@
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
-        <v>44116.034823032409</v>
+        <v>44144.708341446763</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C45" s="4">
-        <v>44115</v>
+        <v>44113</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
-        <v>44124.278702974538</v>
+        <v>44116.034823032409</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C46" s="4">
-        <v>44123</v>
+        <v>44115</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>9</v>
@@ -1709,16 +1700,16 @@
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
-        <v>44130.987619965279</v>
+        <v>44124.278702974538</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C47" s="4">
-        <v>44130</v>
+        <v>44123</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>2</v>
@@ -1727,7 +1718,7 @@
         <v>9</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
@@ -1735,91 +1726,91 @@
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
-        <v>44144.708341446763</v>
+        <v>44130.987619965279</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C48" s="4">
-        <v>44113</v>
+        <v>44130</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
-        <v>44158.253927280093</v>
+        <v>44151.25282173611</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C49" s="4">
-        <v>44157</v>
+        <v>44150</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
-        <v>44165.708450868056</v>
+        <v>44158.253927280093</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C50" s="4">
-        <v>44165</v>
+        <v>44157</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
-        <v>44172.262970115742</v>
+        <v>44165.708450868056</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C51" s="4">
-        <v>44171</v>
+        <v>44165</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>9</v>
@@ -1828,10 +1819,10 @@
         <v>9</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>2</v>
@@ -1839,39 +1830,39 @@
     </row>
     <row r="52" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
-        <v>44177.211016458328</v>
+        <v>44172.262970115742</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C52" s="4">
-        <v>44176</v>
+        <v>44171</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
-        <v>44151.25282173611</v>
+        <v>44177.211016458328</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C53" s="4">
-        <v>44150</v>
+        <v>44176</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>2</v>
@@ -1880,13 +1871,13 @@
         <v>2</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="13" x14ac:dyDescent="0.15">
@@ -1969,51 +1960,51 @@
     </row>
     <row r="57" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
-        <v>44129.808915902773</v>
+        <v>44122.884823969907</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C57" s="4">
-        <v>44129</v>
+        <v>44115</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
-        <v>44122.884823969907</v>
+        <v>44122.885547986109</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C58" s="4">
-        <v>44115</v>
+        <v>44122</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>10</v>
@@ -2021,28 +2012,28 @@
     </row>
     <row r="59" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
-        <v>44122.885547986109</v>
+        <v>44129.808915902773</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C59" s="4">
-        <v>44122</v>
+        <v>44129</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="13" x14ac:dyDescent="0.15">
@@ -2073,45 +2064,45 @@
     </row>
     <row r="61" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
-        <v>44127.155857060185</v>
+        <v>44101.879268078701</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="4">
-        <v>44126</v>
+        <v>44101</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
-        <v>44137.406707291666</v>
+        <v>44109.457095069447</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C62" s="4">
-        <v>44137</v>
+        <v>44108</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>2</v>
@@ -2125,65 +2116,65 @@
     </row>
     <row r="63" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
-        <v>44152.524581342594</v>
+        <v>44116.431979583329</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C63" s="4">
-        <v>44150</v>
+        <v>44115</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
-        <v>44101.879268078701</v>
+        <v>44127.155857060185</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C64" s="4">
-        <v>44101</v>
+        <v>44126</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
-        <v>44109.457095069447</v>
+        <v>44129.594733368052</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C65" s="4">
-        <v>44108</v>
+        <v>44129</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>9</v>
@@ -2192,7 +2183,7 @@
         <v>9</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>2</v>
@@ -2203,54 +2194,54 @@
     </row>
     <row r="66" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
-        <v>44116.431979583329</v>
+        <v>44137.406707291666</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C66" s="4">
-        <v>44115</v>
+        <v>44137</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
-        <v>44129.594733368052</v>
+        <v>44152.524581342594</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C67" s="4">
-        <v>44129</v>
+        <v>44150</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="13" x14ac:dyDescent="0.15">
@@ -2495,7 +2486,7 @@
         <v>37</v>
       </c>
       <c r="C77" s="4">
-        <v>44194</v>
+        <v>44164</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>3</v>
@@ -2775,25 +2766,25 @@
     </row>
     <row r="88" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
-        <v>44157.574375266202</v>
+        <v>44150.437193148144</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C88" s="4">
-        <v>44157</v>
+        <v>44150</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>4</v>
@@ -2801,25 +2792,25 @@
     </row>
     <row r="89" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
-        <v>44166.40329159722</v>
+        <v>44157.574375266202</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C89" s="4">
-        <v>44164</v>
+        <v>44157</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>4</v>
@@ -2827,45 +2818,45 @@
     </row>
     <row r="90" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
-        <v>44171.614907488431</v>
+        <v>44166.40329159722</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C90" s="4">
-        <v>44170</v>
+        <v>44164</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
-        <v>44179.491824224533</v>
+        <v>44171.614907488431</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C91" s="4">
-        <v>44178</v>
+        <v>44170</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>2</v>
@@ -2874,18 +2865,18 @@
         <v>9</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
-        <v>44150.437193148144</v>
+        <v>44179.491824224533</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C92" s="4">
-        <v>44150</v>
+        <v>44178</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>4</v>
@@ -2894,10 +2885,10 @@
         <v>4</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>4</v>
@@ -2960,7 +2951,7 @@
         <v>44102.980850844906</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C95" s="4">
         <v>44102</v>
@@ -2983,181 +2974,181 @@
     </row>
     <row r="96" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
-        <v>44126.441484907409</v>
+        <v>44116.480460787032</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C96" s="4">
-        <v>44126</v>
+        <v>44116</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
-        <v>44130.350835451391</v>
+        <v>44109.891164733795</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C97" s="4">
-        <v>44130</v>
+        <v>44123</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
-        <v>44136.966159340278</v>
+        <v>44126.441484907409</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C98" s="4">
-        <v>44136</v>
+        <v>44126</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
-        <v>44143.963232361115</v>
+        <v>44130.350835451391</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C99" s="4">
-        <v>44143</v>
+        <v>44130</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
-        <v>44152.918102546297</v>
+        <v>44136.966159340278</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C100" s="4">
-        <v>44152</v>
+        <v>44136</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
-        <v>44165.954982187497</v>
+        <v>44143.963232361115</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C101" s="4">
-        <v>44165</v>
+        <v>44143</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
-        <v>44172.97263668981</v>
+        <v>44152.918102546297</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C102" s="4">
-        <v>44172</v>
+        <v>44152</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>4</v>
@@ -3165,19 +3156,19 @@
     </row>
     <row r="103" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
-        <v>44177.914178784718</v>
+        <v>44165.954982187497</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C103" s="4">
-        <v>44177</v>
+        <v>44165</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>4</v>
@@ -3191,16 +3182,16 @@
     </row>
     <row r="104" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
-        <v>44109.891164733795</v>
+        <v>44172.97263668981</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C104" s="4">
-        <v>43849</v>
+        <v>44172</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>4</v>
@@ -3209,33 +3200,33 @@
         <v>4</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
-        <v>44116.480460787032</v>
+        <v>44177.914178784718</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C105" s="4">
-        <v>44116</v>
+        <v>44177</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>4</v>
@@ -3477,25 +3468,25 @@
     </row>
     <row r="115" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
-        <v>44108.956542604166</v>
+        <v>44115.835558784718</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C115" s="4">
-        <v>43961</v>
+        <v>44115</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>2</v>
@@ -3503,22 +3494,22 @@
     </row>
     <row r="116" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
-        <v>44115.835558784718</v>
+        <v>44123.565782777776</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C116" s="4">
-        <v>44115</v>
+        <v>44123</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>2</v>
@@ -3529,48 +3520,48 @@
     </row>
     <row r="117" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
-        <v>44123.565782777776</v>
+        <v>44129.801775914355</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C117" s="4">
-        <v>44123</v>
+        <v>44129</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
-        <v>44129.801775914355</v>
+        <v>44137.388559884261</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C118" s="4">
-        <v>44129</v>
+        <v>44137</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>2</v>
@@ -3581,77 +3572,77 @@
     </row>
     <row r="119" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
-        <v>44137.388559884261</v>
+        <v>44144.509893912036</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C119" s="4">
-        <v>44137</v>
+        <v>44144</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
-        <v>44144.509893912036</v>
+        <v>44151.541037442134</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C120" s="4">
-        <v>44144</v>
+        <v>44151</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
-        <v>44151.541037442134</v>
+        <v>44158.495764097221</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C121" s="4">
-        <v>44151</v>
+        <v>44158</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>2</v>
@@ -3659,25 +3650,25 @@
     </row>
     <row r="122" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
-        <v>44158.495764097221</v>
+        <v>44165.413378564816</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C122" s="4">
-        <v>44158</v>
+        <v>44165</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>2</v>
@@ -3685,25 +3676,25 @@
     </row>
     <row r="123" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
-        <v>44165.413378564816</v>
+        <v>44172.521002939815</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C123" s="4">
-        <v>44165</v>
+        <v>44172</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>2</v>
@@ -3711,25 +3702,25 @@
     </row>
     <row r="124" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
-        <v>44172.521002939815</v>
+        <v>44177.655789247685</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C124" s="4">
-        <v>44172</v>
+        <v>44177</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>2</v>
@@ -3737,91 +3728,91 @@
     </row>
     <row r="125" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
-        <v>44177.655789247685</v>
+        <v>44108.924655833333</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C125" s="4">
-        <v>44177</v>
+        <v>44108</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
-        <v>44108.924655833333</v>
+        <v>44101.832639594912</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C126" s="4">
-        <v>43931</v>
+        <v>44101</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
-        <v>44180.376638912036</v>
+        <v>44108.924991319444</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C127" s="4">
-        <v>44164</v>
+        <v>44108</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
-        <v>44180.383872245366</v>
+        <v>44180.407056469907</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C128" s="4">
-        <v>44171</v>
+        <v>44136</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>4</v>
@@ -3836,24 +3827,24 @@
         <v>2</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
-        <v>44180.39166606481</v>
+        <v>44180.401527106485</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C129" s="4">
-        <v>44178</v>
+        <v>44143</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>9</v>
@@ -3862,12 +3853,12 @@
         <v>9</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
-        <v>44180.401527106485</v>
+        <v>44143.783631666665</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>14</v>
@@ -3879,13 +3870,13 @@
         <v>2</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>2</v>
@@ -3893,51 +3884,51 @@
     </row>
     <row r="131" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
-        <v>44180.407056469907</v>
+        <v>44157.896031967597</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C131" s="4">
-        <v>44136</v>
+        <v>44150</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
-        <v>44101.832639594912</v>
+        <v>44157.878027222221</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C132" s="4">
-        <v>44101</v>
+        <v>44157</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>2</v>
@@ -3945,51 +3936,51 @@
     </row>
     <row r="133" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
-        <v>44108.924991319444</v>
+        <v>44180.376638912036</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C133" s="4">
-        <v>44108</v>
+        <v>44164</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
-        <v>44143.783631666665</v>
+        <v>44180.383872245366</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C134" s="4">
-        <v>44143</v>
+        <v>44171</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>2</v>
@@ -3997,175 +3988,175 @@
     </row>
     <row r="135" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
-        <v>44157.878027222221</v>
+        <v>44180.39166606481</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C135" s="4">
-        <v>44157</v>
+        <v>44178</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
-        <v>44157.896031967597</v>
+        <v>44101.806811168979</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C136" s="4">
-        <v>44150</v>
+        <v>44101</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
-        <v>44101.806811168979</v>
+        <v>44109.150087187503</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C137" s="4">
-        <v>44101</v>
+        <v>44108</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
-        <v>44109.150087187503</v>
+        <v>44116.964336643519</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C138" s="4">
-        <v>44108</v>
+        <v>44115</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
-        <v>44116.964336643519</v>
+        <v>44124.075701562499</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C139" s="4">
-        <v>44115</v>
+        <v>44123</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
-        <v>44124.075701562499</v>
+        <v>44130.180583333335</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C140" s="4">
-        <v>44123</v>
+        <v>44129</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
-        <v>44130.180583333335</v>
+        <v>44144.732734409721</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C141" s="4">
-        <v>44129</v>
+        <v>44143</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>2</v>
@@ -4174,30 +4165,30 @@
         <v>2</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
-        <v>44144.732734409721</v>
+        <v>44151.921806203703</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C142" s="4">
-        <v>44143</v>
+        <v>44150</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>2</v>
@@ -4205,28 +4196,28 @@
     </row>
     <row r="143" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
-        <v>44151.921806203703</v>
+        <v>44168.195846585644</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C143" s="4">
-        <v>44150</v>
+        <v>44155</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="13" x14ac:dyDescent="0.15">
@@ -4257,65 +4248,65 @@
     </row>
     <row r="145" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
-        <v>44168.195846585644</v>
+        <v>44172.640575879632</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C145" s="4">
-        <v>44155</v>
+        <v>44171</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G145" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
-        <v>44172.640575879632</v>
+        <v>44101.960021296298</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C146" s="4">
-        <v>376176</v>
+        <v>44101</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
-        <v>44101.887925902774</v>
+        <v>44108.953068831019</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C147" s="4">
-        <v>44094</v>
+        <v>44108</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>9</v>
@@ -4324,82 +4315,82 @@
         <v>9</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
-        <v>44101.960021296298</v>
+        <v>44115.818140462958</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C148" s="4">
-        <v>44101</v>
+        <v>44115</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
-        <v>44108.953068831019</v>
+        <v>44122.870328657409</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C149" s="4">
-        <v>44108</v>
+        <v>44122</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
-        <v>44115.818140462958</v>
+        <v>44130.27206938657</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C150" s="4">
-        <v>44115</v>
+        <v>44129</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>3</v>
@@ -4408,105 +4399,105 @@
         <v>19</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
-        <v>44122.870328657409</v>
+        <v>44136.89177180556</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C151" s="4">
-        <v>44122</v>
+        <v>44136</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
-        <v>44130.27206938657</v>
+        <v>44143.736689976853</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C152" s="4">
-        <v>44129</v>
+        <v>44143</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
-        <v>44136.89177180556</v>
+        <v>44150.859874201386</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C153" s="4">
-        <v>44136</v>
+        <v>44150</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G153" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
-        <v>44143.736689976853</v>
+        <v>44158.358298831023</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C154" s="4">
-        <v>44143</v>
+        <v>44157</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>19</v>
@@ -4517,48 +4508,48 @@
     </row>
     <row r="155" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
-        <v>44150.859874201386</v>
+        <v>44164.964741840275</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C155" s="4">
-        <v>44150</v>
+        <v>44164</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G155" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
-        <v>44158.358298831023</v>
+        <v>44171.945409814813</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C156" s="4">
-        <v>44157</v>
+        <v>44171</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>19</v>
@@ -4569,126 +4560,126 @@
     </row>
     <row r="157" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
-        <v>44164.964741840275</v>
+        <v>44177.956606724532</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C157" s="4">
-        <v>44164</v>
+        <v>44177</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
-        <v>44171.945409814813</v>
+        <v>44102.446093912033</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C158" s="4">
-        <v>44171</v>
+        <v>44101</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
-        <v>44177.956606724532</v>
+        <v>44109.492040972225</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C159" s="4">
-        <v>44177</v>
+        <v>44108</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
-        <v>44102.446093912033</v>
+        <v>44116.506773379631</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C160" s="4">
-        <v>44101</v>
+        <v>44115</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
-        <v>44109.492040972225</v>
+        <v>44123.441240613422</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C161" s="4">
-        <v>44108</v>
+        <v>44122</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>19</v>
@@ -4699,13 +4690,13 @@
     </row>
     <row r="162" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
-        <v>44116.506773379631</v>
+        <v>44130.41025346065</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C162" s="4">
-        <v>44115</v>
+        <v>44129</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>9</v>
@@ -4720,70 +4711,70 @@
         <v>19</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
-        <v>44123.441240613422</v>
+        <v>44137.623393217596</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C163" s="4">
-        <v>44122</v>
+        <v>44136</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="2">
-        <v>44130.41025346065</v>
+        <v>44151.461783888888</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C164" s="4">
-        <v>44129</v>
+        <v>44150</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
-        <v>44137.623393217596</v>
+        <v>44158.502903749999</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C165" s="4">
-        <v>44136</v>
+        <v>44157</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>3</v>
@@ -4792,24 +4783,24 @@
         <v>3</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
-        <v>44151.461783888888</v>
+        <v>44165.423228287036</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C166" s="4">
-        <v>44150</v>
+        <v>44164</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>2</v>
@@ -4818,7 +4809,7 @@
         <v>9</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>19</v>
@@ -4829,181 +4820,181 @@
     </row>
     <row r="167" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
-        <v>44158.502903749999</v>
+        <v>44173.368402002314</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C167" s="4">
-        <v>44157</v>
+        <v>44171</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
-        <v>44165.423228287036</v>
+        <v>44112.675651192127</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C168" s="4">
-        <v>44164</v>
+        <v>44116</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
-        <v>44173.368402002314</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>32</v>
+        <v>44101.810823715277</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C169" s="4">
-        <v>44171</v>
+        <v>44101</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
-        <v>44112.675651192127</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>53</v>
+        <v>44108.915218819442</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C170" s="4">
-        <v>44116</v>
+        <v>44108</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
-        <v>44101.810823715277</v>
+        <v>44115.907612361116</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C171" s="4">
-        <v>44101</v>
+        <v>44115</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
-        <v>44108.915218819442</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>11</v>
+        <v>44101.807015405095</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C172" s="4">
-        <v>44108</v>
+        <v>44101</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
-        <v>44115.907612361116</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>11</v>
+        <v>44108.898938275466</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C173" s="4">
-        <v>44115</v>
+        <v>44108</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H173" s="3" t="s">
         <v>4</v>
@@ -5011,39 +5002,39 @@
     </row>
     <row r="174" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
-        <v>44101.807015405095</v>
+        <v>44116.949681099533</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C174" s="4">
-        <v>44101</v>
+        <v>44115</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
-        <v>44108.898938275466</v>
+        <v>44123.484889074069</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C175" s="4">
-        <v>44108</v>
+        <v>44122</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>4</v>
@@ -5052,10 +5043,10 @@
         <v>4</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H175" s="3" t="s">
         <v>4</v>
@@ -5063,77 +5054,77 @@
     </row>
     <row r="176" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
-        <v>44116.949681099533</v>
+        <v>44129.564727256948</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C176" s="4">
-        <v>44115</v>
+        <v>44129</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
-        <v>44123.484889074069</v>
+        <v>44109.585834513884</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="C177" s="4">
-        <v>44122</v>
+        <v>44109</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
-        <v>44129.564727256948</v>
+        <v>44102.10416427083</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C178" s="4">
-        <v>44129</v>
+        <v>44102</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H178" s="3" t="s">
         <v>10</v>
@@ -5141,42 +5132,42 @@
     </row>
     <row r="179" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="2">
-        <v>44109.585834513884</v>
+        <v>44138.179228773151</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C179" s="4">
-        <v>44109</v>
+        <v>44138</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="2">
-        <v>44102.10416427083</v>
+        <v>44140.126698310181</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C180" s="4">
-        <v>44102</v>
+        <v>44140</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>4</v>
@@ -5193,16 +5184,16 @@
     </row>
     <row r="181" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
-        <v>44138.179228773151</v>
+        <v>44177.152430914357</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C181" s="4">
-        <v>44138</v>
+        <v>44177</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>4</v>
@@ -5214,56 +5205,56 @@
         <v>4</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="2">
-        <v>44140.126698310181</v>
+        <v>44101.797649675922</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="C182" s="4">
-        <v>44140</v>
+        <v>44101</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="2">
-        <v>44177.152430914357</v>
+        <v>44105.654989490737</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C183" s="4">
-        <v>44177</v>
+        <v>44105</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H183" s="3" t="s">
         <v>4</v>
@@ -5271,19 +5262,19 @@
     </row>
     <row r="184" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="2">
-        <v>44101.797649675922</v>
+        <v>44116.269737453702</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C184" s="4">
-        <v>44101</v>
+        <v>44115</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>2</v>
@@ -5292,18 +5283,18 @@
         <v>2</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="2">
-        <v>44105.654989490737</v>
+        <v>44137.631239606482</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C185" s="4">
-        <v>44105</v>
+        <v>44137</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>9</v>
@@ -5315,24 +5306,24 @@
         <v>9</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="2">
-        <v>44116.269737453702</v>
+        <v>44140.763626215281</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C186" s="4">
-        <v>44115</v>
+        <v>44140</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>2</v>
@@ -5349,25 +5340,25 @@
     </row>
     <row r="187" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="2">
-        <v>44137.631239606482</v>
+        <v>44103.977777499997</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C187" s="4">
-        <v>44137</v>
+        <v>44103</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H187" s="3" t="s">
         <v>2</v>
@@ -5375,48 +5366,48 @@
     </row>
     <row r="188" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="2">
-        <v>44140.763626215281</v>
+        <v>44108.930543946757</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C188" s="4">
-        <v>44140</v>
+        <v>44108</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="2">
-        <v>44103.977777499997</v>
+        <v>44101.893638923611</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C189" s="4">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G189" s="3" t="s">
         <v>9</v>
@@ -5427,39 +5418,39 @@
     </row>
     <row r="190" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="2">
-        <v>44108.930543946757</v>
+        <v>44110.884404988421</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C190" s="4">
-        <v>44108</v>
+        <v>44110</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="2">
-        <v>44101.893638923611</v>
+        <v>44117.92957521991</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C191" s="4">
-        <v>44101</v>
+        <v>44117</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>9</v>
@@ -5474,18 +5465,18 @@
         <v>9</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="2">
-        <v>44110.884404988421</v>
+        <v>44129.941581643521</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C192" s="4">
-        <v>44110</v>
+        <v>44129</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>9</v>
@@ -5497,7 +5488,7 @@
         <v>9</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H192" s="3" t="s">
         <v>4</v>
@@ -5505,13 +5496,13 @@
     </row>
     <row r="193" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
-        <v>44117.92957521991</v>
+        <v>44136.887294143518</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C193" s="4">
-        <v>44117</v>
+        <v>44136</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>9</v>
@@ -5531,13 +5522,13 @@
     </row>
     <row r="194" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="2">
-        <v>44129.941581643521</v>
+        <v>44143.829986608791</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C194" s="4">
-        <v>44129</v>
+        <v>44143</v>
       </c>
       <c r="D194" s="3" t="s">
         <v>9</v>
@@ -5557,19 +5548,13 @@
     </row>
     <row r="195" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="2">
-        <v>44143.829986608791</v>
+        <v>44150.936797766204</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C195" s="4">
-        <v>44143</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>9</v>
+        <v>44150</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>9</v>
@@ -5635,97 +5620,103 @@
     </row>
     <row r="198" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="2">
-        <v>44150.936797766204</v>
+        <v>44101.828986712964</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C198" s="4">
-        <v>44150</v>
+        <v>44101</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="2">
-        <v>44136.887294143518</v>
+        <v>44109.291853368057</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C199" s="4">
-        <v>44136</v>
+        <v>44108</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="2">
-        <v>44101.828986712964</v>
+        <v>44116.440667280098</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C200" s="4">
-        <v>44101</v>
+        <v>44115</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="2">
-        <v>44109.291853368057</v>
+        <v>44124.477224131944</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C201" s="4">
-        <v>44108</v>
+        <v>44123</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F201" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H201" s="3" t="s">
         <v>3</v>
@@ -5733,77 +5724,77 @@
     </row>
     <row r="202" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="2">
-        <v>44116.440667280098</v>
+        <v>44102.175340601854</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C202" s="4">
-        <v>44115</v>
+        <v>44101</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="G202" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="2">
-        <v>44124.477224131944</v>
+        <v>44102.913263055554</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C203" s="4">
-        <v>44123</v>
+        <v>44102</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="2">
-        <v>44102.175340601854</v>
+        <v>44108.683647407408</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C204" s="4">
-        <v>44101</v>
+        <v>44108</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H204" s="3" t="s">
         <v>9</v>
@@ -5811,169 +5802,169 @@
     </row>
     <row r="205" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="2">
-        <v>44102.913263055554</v>
+        <v>44130.312627002313</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C205" s="4">
-        <v>44102</v>
+        <v>44129</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="2">
-        <v>44108.683647407408</v>
+        <v>44104.489612708334</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C206" s="4">
-        <v>44108</v>
+        <v>44104</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="2">
-        <v>44130.312627002313</v>
+        <v>44115.493813449073</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C207" s="4">
-        <v>44129</v>
+        <v>44115</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="2">
-        <v>44104.489612708334</v>
+        <v>44122.973309687499</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C208" s="4">
-        <v>44104</v>
+        <v>44122</v>
       </c>
       <c r="D208" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="2">
-        <v>44115.493813449073</v>
+        <v>44132.357246921296</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C209" s="4">
-        <v>44115</v>
+        <v>44129</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="2">
-        <v>44122.973309687499</v>
+        <v>44139.495683541667</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C210" s="4">
-        <v>44122</v>
+        <v>44136</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="2">
-        <v>44139.495683541667</v>
+        <v>44143.993726377317</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C211" s="4">
-        <v>44136</v>
+        <v>44143</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>2</v>
@@ -5982,24 +5973,24 @@
         <v>9</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="2">
-        <v>44143.993726377317</v>
+        <v>44151.320001481479</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C212" s="4">
-        <v>44143</v>
+        <v>44150</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>2</v>
@@ -6011,21 +6002,21 @@
         <v>2</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="2">
-        <v>44151.320001481479</v>
+        <v>44165.411705127313</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C213" s="4">
-        <v>44150</v>
+        <v>44164</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>2</v>
@@ -6037,7 +6028,7 @@
         <v>2</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H213" s="3" t="s">
         <v>4</v>
@@ -6045,25 +6036,25 @@
     </row>
     <row r="214" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="2">
-        <v>44165.411705127313</v>
+        <v>44101.943359988421</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C214" s="4">
-        <v>44164</v>
+        <v>44101</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H214" s="3" t="s">
         <v>4</v>
@@ -6071,123 +6062,123 @@
     </row>
     <row r="215" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="2">
-        <v>44132.357246921296</v>
+        <v>44108.92269861111</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C215" s="4">
-        <v>44129</v>
+        <v>44108</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="2">
-        <v>44101.943359988421</v>
+        <v>44115.907786863427</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C216" s="4">
-        <v>44101</v>
+        <v>44115</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G216" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="2">
-        <v>44108.92269861111</v>
+        <v>44129.93086832176</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C217" s="4">
-        <v>44108</v>
+        <v>44129</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="2">
-        <v>44115.907786863427</v>
+        <v>44147.904853807871</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C218" s="4">
-        <v>44115</v>
+        <v>44144</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="2">
-        <v>44129.93086832176</v>
+        <v>44157.889357372682</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C219" s="4">
-        <v>44129</v>
+        <v>44155</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>9</v>
@@ -6201,16 +6192,16 @@
     </row>
     <row r="220" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="2">
-        <v>44147.904853807871</v>
+        <v>44165.860244537034</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C220" s="4">
-        <v>44144</v>
+        <v>44163</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E220" s="3" t="s">
         <v>2</v>
@@ -6219,50 +6210,50 @@
         <v>2</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="2">
-        <v>44157.889357372682</v>
+        <v>44172.897081886578</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C221" s="4">
-        <v>44155</v>
+        <v>44170</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="2">
-        <v>44165.860244537034</v>
+        <v>44181.892593206023</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C222" s="4">
-        <v>44163</v>
+        <v>44177</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E222" s="3" t="s">
         <v>2</v>
@@ -6274,30 +6265,30 @@
         <v>2</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="2">
-        <v>44172.897081886578</v>
+        <v>44102.534535625004</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C223" s="4">
-        <v>44170</v>
+        <v>44101</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H223" s="3" t="s">
         <v>2</v>
@@ -6305,16 +6296,16 @@
     </row>
     <row r="224" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="2">
-        <v>44181.892593206023</v>
+        <v>44109.841553368053</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C224" s="4">
-        <v>44177</v>
+        <v>44108</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>2</v>
@@ -6326,30 +6317,30 @@
         <v>2</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="2">
-        <v>44102.534535625004</v>
+        <v>44117.673811550922</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C225" s="4">
-        <v>44101</v>
+        <v>44115</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F225" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H225" s="3" t="s">
         <v>2</v>
@@ -6357,19 +6348,19 @@
     </row>
     <row r="226" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="2">
-        <v>44109.841553368053</v>
+        <v>44125.997978657411</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C226" s="4">
-        <v>44108</v>
+        <v>44123</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>2</v>
@@ -6383,65 +6374,65 @@
     </row>
     <row r="227" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="2">
-        <v>44117.673811550922</v>
+        <v>44130.675251365741</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C227" s="4">
-        <v>44115</v>
+        <v>44129</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G227" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="2">
-        <v>44125.997978657411</v>
+        <v>44137.540232870371</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C228" s="4">
-        <v>44123</v>
+        <v>44136</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="2">
-        <v>44130.675251365741</v>
+        <v>44151.8441499537</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C229" s="4">
-        <v>44129</v>
+        <v>44142</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>9</v>
@@ -6453,21 +6444,21 @@
         <v>9</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="2">
-        <v>44137.540232870371</v>
+        <v>44151.844482962959</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C230" s="4">
-        <v>44136</v>
+        <v>44149</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>2</v>
@@ -6476,76 +6467,76 @@
         <v>2</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="2">
-        <v>44151.8441499537</v>
+        <v>44158.579033287038</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C231" s="4">
-        <v>44142</v>
+        <v>44157</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G231" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="2">
-        <v>44151.844482962959</v>
+        <v>44169.42431081018</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C232" s="4">
-        <v>44149</v>
+        <v>44164</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G232" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="2">
-        <v>44158.579033287038</v>
+        <v>44172.523898483792</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C233" s="4">
-        <v>44157</v>
+        <v>44172</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>4</v>
@@ -6554,10 +6545,10 @@
         <v>4</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H233" s="3" t="s">
         <v>9</v>
@@ -6565,39 +6556,39 @@
     </row>
     <row r="234" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="2">
-        <v>44169.42431081018</v>
+        <v>44102.465986527779</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C234" s="4">
-        <v>44164</v>
+        <v>44102</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="2">
-        <v>44172.523898483792</v>
+        <v>44104.425150601848</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C235" s="4">
-        <v>44172</v>
+        <v>44104</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>4</v>
@@ -6609,73 +6600,73 @@
         <v>2</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A236" s="2">
-        <v>44102.465986527779</v>
+        <v>44102.6096430787</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C236" s="4">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="2">
-        <v>44104.425150601848</v>
+        <v>44109.080760069446</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C237" s="4">
-        <v>44104</v>
+        <v>44108</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="2">
-        <v>44109.080760069446</v>
+        <v>44116.758178217591</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C238" s="4">
-        <v>44108</v>
+        <v>44115</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>2</v>
@@ -6684,24 +6675,24 @@
         <v>2</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="2">
-        <v>44116.758178217591</v>
+        <v>44131.07130570602</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C239" s="4">
-        <v>44115</v>
+        <v>44130</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>2</v>
@@ -6716,21 +6707,21 @@
         <v>3</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="2">
-        <v>44131.07130570602</v>
+        <v>44102.341079305552</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C240" s="4">
-        <v>44130</v>
+        <v>44102</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E240" s="3" t="s">
         <v>2</v>
@@ -6739,7 +6730,7 @@
         <v>2</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H240" s="3" t="s">
         <v>2</v>
@@ -6747,13 +6738,13 @@
     </row>
     <row r="241" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="2">
-        <v>44102.6096430787</v>
+        <v>44109.759945914353</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C241" s="4">
-        <v>44101</v>
+        <v>44109</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>9</v>
@@ -6762,88 +6753,88 @@
         <v>9</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="2">
-        <v>44102.341079305552</v>
+        <v>44116.672224965281</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C242" s="4">
-        <v>44102</v>
+        <v>44116</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="2">
-        <v>44109.759945914353</v>
+        <v>44123.584407071758</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C243" s="4">
-        <v>44109</v>
+        <v>44123</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F243" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="2">
-        <v>44116.672224965281</v>
+        <v>44129.635674340279</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C244" s="4">
-        <v>44116</v>
+        <v>44129</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H244" s="3" t="s">
         <v>4</v>
@@ -6851,94 +6842,94 @@
     </row>
     <row r="245" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="2">
-        <v>44123.584407071758</v>
+        <v>44137.57611332176</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C245" s="4">
-        <v>44123</v>
+        <v>44137</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F245" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="2">
-        <v>44137.57611332176</v>
+        <v>44102.343129155095</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C246" s="4">
-        <v>44137</v>
+        <v>44102</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G246" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="2">
-        <v>44129.635674340279</v>
+        <v>44109.364478541669</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C247" s="4">
-        <v>44129</v>
+        <v>44109</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E247" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G247" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="2">
-        <v>44102.343129155095</v>
+        <v>44130.336043993055</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C248" s="4">
-        <v>44102</v>
+        <v>44130</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E248" s="3" t="s">
         <v>2</v>
@@ -6947,7 +6938,7 @@
         <v>2</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H248" s="3" t="s">
         <v>2</v>
@@ -6955,13 +6946,13 @@
     </row>
     <row r="249" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="2">
-        <v>44109.364478541669</v>
+        <v>44137.388473043982</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C249" s="4">
-        <v>44109</v>
+        <v>44137</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>4</v>
@@ -6981,13 +6972,13 @@
     </row>
     <row r="250" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="2">
-        <v>44130.336043993055</v>
+        <v>44144.526500312495</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C250" s="4">
-        <v>44130</v>
+        <v>44144</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>2</v>
@@ -6999,47 +6990,47 @@
         <v>2</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="2">
-        <v>44137.388473043982</v>
+        <v>44151.457890821759</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C251" s="4">
-        <v>44137</v>
+        <v>44151</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="2">
-        <v>44144.526500312495</v>
+        <v>44158.51839168981</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C252" s="4">
-        <v>44144</v>
+        <v>44158</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>2</v>
@@ -7054,79 +7045,79 @@
         <v>2</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="2">
-        <v>44151.457890821759</v>
+        <v>44165.524150659723</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C253" s="4">
-        <v>44151</v>
+        <v>44165</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F253" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="2">
-        <v>44158.51839168981</v>
+        <v>44172.530058761578</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C254" s="4">
-        <v>44158</v>
+        <v>44172</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="2">
-        <v>44165.524150659723</v>
+        <v>44179.34461644676</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C255" s="4">
-        <v>44165</v>
+        <v>44179</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E255" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G255" s="3" t="s">
         <v>4</v>
@@ -7137,25 +7128,25 @@
     </row>
     <row r="256" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="2">
-        <v>44172.530058761578</v>
+        <v>44101.834108587966</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C256" s="4">
-        <v>44172</v>
+        <v>44101</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H256" s="3" t="s">
         <v>4</v>
@@ -7163,25 +7154,25 @@
     </row>
     <row r="257" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="2">
-        <v>44179.34461644676</v>
+        <v>44109.847809560189</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C257" s="4">
-        <v>44179</v>
+        <v>44108</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F257" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H257" s="3" t="s">
         <v>4</v>
@@ -7189,91 +7180,91 @@
     </row>
     <row r="258" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="2">
-        <v>44130.591827962962</v>
+        <v>44116.623551747689</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C258" s="4">
-        <v>44129</v>
+        <v>44115</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="2">
-        <v>44101.834108587966</v>
+        <v>44130.591827962962</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C259" s="4">
-        <v>44101</v>
+        <v>44129</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="2">
-        <v>44109.847809560189</v>
+        <v>44101.838870810185</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C260" s="4">
-        <v>44108</v>
+        <v>44101</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E260" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="2">
-        <v>44116.623551747689</v>
+        <v>44109.401529027775</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C261" s="4">
-        <v>44115</v>
+        <v>44109</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>9</v>
@@ -7282,10 +7273,10 @@
         <v>9</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H261" s="3" t="s">
         <v>2</v>
@@ -7293,16 +7284,16 @@
     </row>
     <row r="262" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="2">
-        <v>44101.838870810185</v>
+        <v>44115.909031840274</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C262" s="4">
-        <v>44101</v>
+        <v>44115</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E262" s="3" t="s">
         <v>2</v>
@@ -7319,48 +7310,48 @@
     </row>
     <row r="263" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="2">
-        <v>44109.401529027775</v>
+        <v>44123.478233877315</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C263" s="4">
-        <v>44109</v>
+        <v>44123</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H263" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="2">
-        <v>44115.909031840274</v>
+        <v>44137.35775387731</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C264" s="4">
-        <v>44115</v>
+        <v>44137</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G264" s="3" t="s">
         <v>9</v>
@@ -7371,19 +7362,19 @@
     </row>
     <row r="265" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="2">
-        <v>44123.478233877315</v>
+        <v>44105.542706782406</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C265" s="4">
-        <v>44123</v>
+        <v>44101</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F265" s="3" t="s">
         <v>4</v>
@@ -7397,16 +7388,16 @@
     </row>
     <row r="266" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="2">
-        <v>44137.35775387731</v>
+        <v>44137.44924386574</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="C266" s="4">
         <v>44137</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>9</v>
@@ -7415,33 +7406,33 @@
         <v>2</v>
       </c>
       <c r="G266" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="2">
-        <v>44105.542706782406</v>
+        <v>44150.689032789349</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C267" s="4">
-        <v>44101</v>
+        <v>44145</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H267" s="3" t="s">
         <v>4</v>
@@ -7449,51 +7440,51 @@
     </row>
     <row r="268" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="2">
-        <v>44137.44924386574</v>
+        <v>44150.688578043977</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C268" s="4">
-        <v>44502</v>
+        <v>44146</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F268" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H268" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="2">
-        <v>44137.449862384259</v>
+        <v>44150.688017326393</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C269" s="4">
-        <v>44161</v>
+        <v>44147</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H269" s="3" t="s">
         <v>4</v>
@@ -7501,77 +7492,77 @@
     </row>
     <row r="270" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="2">
-        <v>44150.687151736114</v>
+        <v>44150.687642418983</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C270" s="4">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G270" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H270" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="2">
-        <v>44150.687642418983</v>
+        <v>44150.687151736114</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C271" s="4">
-        <v>44148</v>
+        <v>44149</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G271" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H271" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="2">
-        <v>44150.688017326393</v>
+        <v>44137.449862384259</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C272" s="4">
-        <v>44147</v>
+        <v>44161</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H272" s="3" t="s">
         <v>4</v>
@@ -7579,25 +7570,25 @@
     </row>
     <row r="273" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="2">
-        <v>44150.688578043977</v>
+        <v>44177.695777592591</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C273" s="4" t="s">
-        <v>59</v>
+      <c r="C273" s="4">
+        <v>44171</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H273" s="3" t="s">
         <v>2</v>
@@ -7605,51 +7596,51 @@
     </row>
     <row r="274" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="2">
-        <v>44150.689032789349</v>
+        <v>44177.69503584491</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C274" s="4">
-        <v>44145</v>
+        <v>44177</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="2">
-        <v>44177.69503584491</v>
+        <v>44105.62680456019</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C275" s="4">
-        <v>44177</v>
+        <v>44101</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F275" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G275" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H275" s="3" t="s">
         <v>9</v>
@@ -7657,25 +7648,25 @@
     </row>
     <row r="276" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="2">
-        <v>44177.695777592591</v>
+        <v>44109.917615902777</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C276" s="4">
-        <v>44171</v>
+        <v>44108</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E276" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F276" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G276" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H276" s="3" t="s">
         <v>2</v>
@@ -7683,39 +7674,39 @@
     </row>
     <row r="277" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="2">
-        <v>44105.62680456019</v>
+        <v>44115.82199217593</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C277" s="4">
-        <v>44101</v>
+        <v>44115</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F277" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H277" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="2">
-        <v>44109.917615902777</v>
+        <v>44123.365985509256</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C278" s="4">
-        <v>43931</v>
+        <v>44122</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>4</v>
@@ -7724,24 +7715,24 @@
         <v>2</v>
       </c>
       <c r="F278" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G278" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H278" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="2">
-        <v>44115.82199217593</v>
+        <v>44129.92176438657</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C279" s="4">
-        <v>44115</v>
+        <v>44129</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>4</v>
@@ -7750,7 +7741,7 @@
         <v>4</v>
       </c>
       <c r="F279" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G279" s="3" t="s">
         <v>2</v>
@@ -7761,42 +7752,42 @@
     </row>
     <row r="280" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="2">
-        <v>44123.365985509256</v>
+        <v>44137.362702395832</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C280" s="4">
-        <v>44122</v>
+        <v>44136</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E280" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F280" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G280" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H280" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="2">
-        <v>44129.92176438657</v>
+        <v>44145.509063472222</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C281" s="4">
-        <v>44129</v>
+        <v>44143</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>4</v>
@@ -7805,30 +7796,30 @@
         <v>4</v>
       </c>
       <c r="G281" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H281" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="2">
-        <v>44137.362702395832</v>
+        <v>44153.335539374995</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C282" s="4">
-        <v>44136</v>
+        <v>44150</v>
       </c>
       <c r="D282" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G282" s="3" t="s">
         <v>9</v>
@@ -7839,155 +7830,155 @@
     </row>
     <row r="283" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="2">
-        <v>44145.509063472222</v>
+        <v>44158.529567141202</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C283" s="4">
-        <v>44143</v>
+        <v>44157</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F283" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G283" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H283" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="2">
-        <v>44153.335539374995</v>
+        <v>44164.944532361114</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C284" s="4">
-        <v>44150</v>
+        <v>44164</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F284" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G284" s="3" t="s">
         <v>9</v>
       </c>
       <c r="H284" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="2">
-        <v>44158.529567141202</v>
+        <v>44172.50804591435</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C285" s="4">
-        <v>44157</v>
+        <v>44171</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E285" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G285" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" s="2">
-        <v>44164.944532361114</v>
+        <v>44179.331935243055</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C286" s="4">
-        <v>44164</v>
+        <v>44178</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F286" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G286" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H286" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="2">
-        <v>44172.50804591435</v>
+        <v>44127.324200810181</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C287" s="4">
-        <v>44171</v>
+        <v>44127</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E287" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H287" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" s="2">
-        <v>44179.331935243055</v>
+        <v>44102.589760300922</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C288" s="4">
-        <v>44178</v>
+        <v>44102</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E288" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F288" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G288" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H288" s="3" t="s">
         <v>2</v>
@@ -7995,68 +7986,68 @@
     </row>
     <row r="289" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="2">
-        <v>44127.324200810181</v>
+        <v>44105.836691863427</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C289" s="4">
-        <v>44127</v>
+        <v>44105</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F289" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H289" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="2">
-        <v>44102.589760300922</v>
+        <v>44109.191235763894</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C290" s="4">
-        <v>44102</v>
+        <v>44108</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F290" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G290" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H290" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="2">
-        <v>44105.836691863427</v>
+        <v>44117.98542636574</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C291" s="4">
-        <v>44105</v>
+        <v>44117</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E291" s="3" t="s">
         <v>9</v>
@@ -8065,85 +8056,85 @@
         <v>2</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H291" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="2">
-        <v>44109.191235763894</v>
+        <v>44101.856247870368</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C292" s="4">
-        <v>44108</v>
+        <v>44101</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F292" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G292" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H292" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="2">
-        <v>44117.98542636574</v>
+        <v>44109.259024965279</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C293" s="4">
-        <v>44117</v>
+        <v>44109</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H293" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="2">
-        <v>44101.856247870368</v>
+        <v>44116.297932881949</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C294" s="4">
-        <v>44101</v>
+        <v>44115</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F294" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G294" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H294" s="3" t="s">
         <v>2</v>
@@ -8151,65 +8142,65 @@
     </row>
     <row r="295" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="2">
-        <v>44109.259024965279</v>
+        <v>44132.338669247685</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C295" s="4">
-        <v>44109</v>
+        <v>44129</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F295" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G295" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H295" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="2">
-        <v>44116.297932881949</v>
+        <v>44147.661144803242</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C296" s="4">
-        <v>44115</v>
+        <v>44143</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F296" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H296" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="2">
-        <v>44132.338669247685</v>
+        <v>44151.878340694442</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C297" s="4">
-        <v>44129</v>
+        <v>44150</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>4</v>
@@ -8229,13 +8220,13 @@
     </row>
     <row r="298" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="2">
-        <v>44147.661144803242</v>
+        <v>44164.803159918985</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C298" s="4">
-        <v>44143</v>
+        <v>44164</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>4</v>
@@ -8255,16 +8246,16 @@
     </row>
     <row r="299" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="2">
-        <v>44151.878340694442</v>
+        <v>44171.470150231486</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C299" s="4">
-        <v>44150</v>
+        <v>44171</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E299" s="3" t="s">
         <v>2</v>
@@ -8273,7 +8264,7 @@
         <v>2</v>
       </c>
       <c r="G299" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H299" s="3" t="s">
         <v>2</v>
@@ -8281,13 +8272,13 @@
     </row>
     <row r="300" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="2">
-        <v>44164.803159918985</v>
+        <v>44178.566052106486</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C300" s="4">
-        <v>44164</v>
+        <v>44178</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>4</v>
@@ -8296,7 +8287,7 @@
         <v>4</v>
       </c>
       <c r="F300" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G300" s="3" t="s">
         <v>2</v>
@@ -8305,61 +8296,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A301" s="2">
-        <v>44171.470150231486</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C301" s="4">
-        <v>44171</v>
-      </c>
-      <c r="D301" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E301" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F301" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G301" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H301" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A302" s="2">
-        <v>44178.566052106486</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C302" s="4">
-        <v>44178</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E302" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F302" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G302" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H302" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H302">
-    <sortCondition ref="B1:B302"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H301">
+    <sortCondition ref="B1:B301"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/R2F Quant Weekly.xlsx
+++ b/data/R2F Quant Weekly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birgitp/Box/Rise 2 Flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31352B01-D406-354C-9CF2-3F905249501C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA6D80A-E485-824A-A774-0E34C9433207}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="460" windowWidth="25820" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2980" yWindow="500" windowWidth="25820" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -112,9 +112,6 @@
     <t>Nickywho</t>
   </si>
   <si>
-    <t>pclausen@grundfos.com</t>
-  </si>
-  <si>
     <t>Emma9812!</t>
   </si>
   <si>
@@ -187,9 +184,6 @@
     <t>Vernita</t>
   </si>
   <si>
-    <t xml:space="preserve">mavipasi </t>
-  </si>
-  <si>
     <t>kdolphins92</t>
   </si>
   <si>
@@ -216,6 +210,12 @@
   <si>
     <t>WQ5_1_6</t>
   </si>
+  <si>
+    <t>pclau</t>
+  </si>
+  <si>
+    <t>mavi</t>
+  </si>
 </sst>
 </file>
 
@@ -234,6 +234,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -493,8 +494,8 @@
   <dimension ref="A1:H300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B206" sqref="B206:B213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -507,25 +508,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -533,7 +534,7 @@
         <v>44103.847168553242</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4">
         <v>44103</v>
@@ -559,7 +560,7 @@
         <v>44109.030507430551</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4">
         <v>44108</v>
@@ -585,7 +586,7 @@
         <v>44123.69654034722</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="4">
         <v>44123</v>
@@ -611,7 +612,7 @@
         <v>44130.660829236112</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4">
         <v>44130</v>
@@ -637,7 +638,7 @@
         <v>44102.708477210646</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4">
         <v>44101</v>
@@ -663,7 +664,7 @@
         <v>44109.891555752314</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4">
         <v>44108</v>
@@ -689,7 +690,7 @@
         <v>44105.639491030088</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4">
         <v>44105</v>
@@ -715,7 +716,7 @@
         <v>44119.661645902779</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4">
         <v>44119</v>
@@ -741,7 +742,7 @@
         <v>44177.616666006943</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4">
         <v>44177</v>
@@ -767,7 +768,7 @@
         <v>44104.393080879629</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="4">
         <v>44104</v>
@@ -793,7 +794,7 @@
         <v>44115.963490196758</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="4">
         <v>44115</v>
@@ -819,7 +820,7 @@
         <v>44130.001043067125</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4">
         <v>44129</v>
@@ -845,7 +846,7 @@
         <v>44137.264451284718</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4">
         <v>44136</v>
@@ -871,7 +872,7 @@
         <v>44143.388308518523</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="4">
         <v>44143</v>
@@ -897,7 +898,7 @@
         <v>44152.773177013893</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4">
         <v>44152</v>
@@ -923,7 +924,7 @@
         <v>44180.313613171296</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="4">
         <v>44179</v>
@@ -1313,7 +1314,7 @@
         <v>44105.976823993056</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="4">
         <v>44105</v>
@@ -1339,7 +1340,7 @@
         <v>44108.916345300924</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="4">
         <v>44108</v>
@@ -1365,7 +1366,7 @@
         <v>44116.881802476855</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" s="4">
         <v>44116</v>
@@ -1391,7 +1392,7 @@
         <v>44123.553985972219</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" s="4">
         <v>44123</v>
@@ -1417,7 +1418,7 @@
         <v>44130.408529837965</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="4">
         <v>44130</v>
@@ -1443,7 +1444,7 @@
         <v>44137.734021805554</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="4">
         <v>44137</v>
@@ -1469,7 +1470,7 @@
         <v>44151.449209791666</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="4">
         <v>44151</v>
@@ -1495,7 +1496,7 @@
         <v>44160.696596215275</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" s="4">
         <v>44155</v>
@@ -1521,7 +1522,7 @@
         <v>44165.518996851853</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="4">
         <v>44165</v>
@@ -1547,7 +1548,7 @@
         <v>44172.879015150465</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="4">
         <v>44171</v>
@@ -1573,7 +1574,7 @@
         <v>44177.912437476851</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="4">
         <v>44177</v>
@@ -2249,7 +2250,7 @@
         <v>44102.788515405089</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C68" s="4">
         <v>44101</v>
@@ -2275,7 +2276,7 @@
         <v>44112.642452141205</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C69" s="4">
         <v>44108</v>
@@ -2301,7 +2302,7 @@
         <v>44119.818622071762</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C70" s="4">
         <v>44115</v>
@@ -2327,7 +2328,7 @@
         <v>44126.824755138892</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C71" s="4">
         <v>44122</v>
@@ -2353,7 +2354,7 @@
         <v>44141.671065983799</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C72" s="4">
         <v>44129</v>
@@ -2379,7 +2380,7 @@
         <v>44141.701212581014</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C73" s="4">
         <v>44136</v>
@@ -2405,7 +2406,7 @@
         <v>44151.75274575231</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74" s="4">
         <v>44143</v>
@@ -2431,7 +2432,7 @@
         <v>44151.769222037037</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="4">
         <v>44150</v>
@@ -2457,7 +2458,7 @@
         <v>44161.753043344906</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C76" s="4">
         <v>44157</v>
@@ -2483,7 +2484,7 @@
         <v>44168.403547465277</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C77" s="4">
         <v>44164</v>
@@ -2509,7 +2510,7 @@
         <v>44175.772154050923</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C78" s="4">
         <v>44171</v>
@@ -2535,7 +2536,7 @@
         <v>44180.768018854171</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C79" s="4">
         <v>44178</v>
@@ -2561,7 +2562,7 @@
         <v>44109.091052627315</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C80" s="4">
         <v>44109</v>
@@ -2951,7 +2952,7 @@
         <v>44102.980850844906</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C95" s="4">
         <v>44102</v>
@@ -2977,7 +2978,7 @@
         <v>44116.480460787032</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C96" s="4">
         <v>44116</v>
@@ -3003,7 +3004,7 @@
         <v>44109.891164733795</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C97" s="4">
         <v>44123</v>
@@ -3029,7 +3030,7 @@
         <v>44126.441484907409</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C98" s="4">
         <v>44126</v>
@@ -3055,7 +3056,7 @@
         <v>44130.350835451391</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C99" s="4">
         <v>44130</v>
@@ -3081,7 +3082,7 @@
         <v>44136.966159340278</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C100" s="4">
         <v>44136</v>
@@ -3107,7 +3108,7 @@
         <v>44143.963232361115</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C101" s="4">
         <v>44143</v>
@@ -3133,7 +3134,7 @@
         <v>44152.918102546297</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C102" s="4">
         <v>44152</v>
@@ -3159,7 +3160,7 @@
         <v>44165.954982187497</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C103" s="4">
         <v>44165</v>
@@ -3185,7 +3186,7 @@
         <v>44172.97263668981</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C104" s="4">
         <v>44172</v>
@@ -3211,7 +3212,7 @@
         <v>44177.914178784718</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C105" s="4">
         <v>44177</v>
@@ -3393,7 +3394,7 @@
         <v>44102.43633762731</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C112" s="4">
         <v>44102</v>
@@ -3731,7 +3732,7 @@
         <v>44108.924655833333</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C125" s="4">
         <v>44108</v>
@@ -4589,7 +4590,7 @@
         <v>44102.446093912033</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C158" s="4">
         <v>44101</v>
@@ -4615,7 +4616,7 @@
         <v>44109.492040972225</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C159" s="4">
         <v>44108</v>
@@ -4641,7 +4642,7 @@
         <v>44116.506773379631</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C160" s="4">
         <v>44115</v>
@@ -4667,7 +4668,7 @@
         <v>44123.441240613422</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C161" s="4">
         <v>44122</v>
@@ -4693,7 +4694,7 @@
         <v>44130.41025346065</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C162" s="4">
         <v>44129</v>
@@ -4719,7 +4720,7 @@
         <v>44137.623393217596</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C163" s="4">
         <v>44136</v>
@@ -4745,7 +4746,7 @@
         <v>44151.461783888888</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C164" s="4">
         <v>44150</v>
@@ -4771,7 +4772,7 @@
         <v>44158.502903749999</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C165" s="4">
         <v>44157</v>
@@ -4797,7 +4798,7 @@
         <v>44165.423228287036</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C166" s="4">
         <v>44164</v>
@@ -4823,7 +4824,7 @@
         <v>44173.368402002314</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C167" s="4">
         <v>44171</v>
@@ -4849,7 +4850,7 @@
         <v>44112.675651192127</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C168" s="4">
         <v>44116</v>
@@ -5083,7 +5084,7 @@
         <v>44109.585834513884</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C177" s="4">
         <v>44109</v>
@@ -5109,7 +5110,7 @@
         <v>44102.10416427083</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C178" s="4">
         <v>44102</v>
@@ -5135,7 +5136,7 @@
         <v>44138.179228773151</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C179" s="4">
         <v>44138</v>
@@ -5161,7 +5162,7 @@
         <v>44140.126698310181</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C180" s="4">
         <v>44140</v>
@@ -5187,7 +5188,7 @@
         <v>44177.152430914357</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C181" s="4">
         <v>44177</v>
@@ -5239,7 +5240,7 @@
         <v>44105.654989490737</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C183" s="4">
         <v>44105</v>
@@ -5265,7 +5266,7 @@
         <v>44116.269737453702</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C184" s="4">
         <v>44115</v>
@@ -5291,7 +5292,7 @@
         <v>44137.631239606482</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C185" s="4">
         <v>44137</v>
@@ -5317,7 +5318,7 @@
         <v>44140.763626215281</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C186" s="4">
         <v>44140</v>
@@ -5343,7 +5344,7 @@
         <v>44103.977777499997</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C187" s="4">
         <v>44103</v>
@@ -5369,7 +5370,7 @@
         <v>44108.930543946757</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C188" s="4">
         <v>44108</v>
@@ -5753,7 +5754,7 @@
         <v>44102.913263055554</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C203" s="4">
         <v>44102</v>
@@ -5779,7 +5780,7 @@
         <v>44108.683647407408</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C204" s="4">
         <v>44108</v>
@@ -5805,7 +5806,7 @@
         <v>44130.312627002313</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C205" s="4">
         <v>44129</v>
@@ -5831,7 +5832,7 @@
         <v>44104.489612708334</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C206" s="4">
         <v>44104</v>
@@ -5857,7 +5858,7 @@
         <v>44115.493813449073</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C207" s="4">
         <v>44115</v>
@@ -5883,7 +5884,7 @@
         <v>44122.973309687499</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C208" s="4">
         <v>44122</v>
@@ -5909,7 +5910,7 @@
         <v>44132.357246921296</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C209" s="4">
         <v>44129</v>
@@ -5935,7 +5936,7 @@
         <v>44139.495683541667</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C210" s="4">
         <v>44136</v>
@@ -5961,7 +5962,7 @@
         <v>44143.993726377317</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C211" s="4">
         <v>44143</v>
@@ -5987,7 +5988,7 @@
         <v>44151.320001481479</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C212" s="4">
         <v>44150</v>
@@ -6013,7 +6014,7 @@
         <v>44165.411705127313</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C213" s="4">
         <v>44164</v>
@@ -6273,7 +6274,7 @@
         <v>44102.534535625004</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C223" s="4">
         <v>44101</v>
@@ -6299,7 +6300,7 @@
         <v>44109.841553368053</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C224" s="4">
         <v>44108</v>
@@ -6325,7 +6326,7 @@
         <v>44117.673811550922</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C225" s="4">
         <v>44115</v>
@@ -6351,7 +6352,7 @@
         <v>44125.997978657411</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C226" s="4">
         <v>44123</v>
@@ -6377,7 +6378,7 @@
         <v>44130.675251365741</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C227" s="4">
         <v>44129</v>
@@ -6403,7 +6404,7 @@
         <v>44137.540232870371</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C228" s="4">
         <v>44136</v>
@@ -6429,7 +6430,7 @@
         <v>44151.8441499537</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C229" s="4">
         <v>44142</v>
@@ -6455,7 +6456,7 @@
         <v>44151.844482962959</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C230" s="4">
         <v>44149</v>
@@ -6481,7 +6482,7 @@
         <v>44158.579033287038</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C231" s="4">
         <v>44157</v>
@@ -6507,7 +6508,7 @@
         <v>44169.42431081018</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C232" s="4">
         <v>44164</v>
@@ -6533,7 +6534,7 @@
         <v>44172.523898483792</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C233" s="4">
         <v>44172</v>
@@ -6559,7 +6560,7 @@
         <v>44102.465986527779</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C234" s="4">
         <v>44102</v>
@@ -6585,7 +6586,7 @@
         <v>44104.425150601848</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C235" s="4">
         <v>44104</v>
@@ -6611,7 +6612,7 @@
         <v>44102.6096430787</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C236" s="4">
         <v>44101</v>
@@ -6637,7 +6638,7 @@
         <v>44109.080760069446</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C237" s="4">
         <v>44108</v>
@@ -6663,7 +6664,7 @@
         <v>44116.758178217591</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C238" s="4">
         <v>44115</v>
@@ -6689,7 +6690,7 @@
         <v>44131.07130570602</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C239" s="4">
         <v>44130</v>
@@ -6871,7 +6872,7 @@
         <v>44102.343129155095</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C246" s="4">
         <v>44102</v>
@@ -6897,7 +6898,7 @@
         <v>44109.364478541669</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C247" s="4">
         <v>44109</v>
@@ -6923,7 +6924,7 @@
         <v>44130.336043993055</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C248" s="4">
         <v>44130</v>
@@ -6949,7 +6950,7 @@
         <v>44137.388473043982</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C249" s="4">
         <v>44137</v>
@@ -6975,7 +6976,7 @@
         <v>44144.526500312495</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C250" s="4">
         <v>44144</v>
@@ -7001,7 +7002,7 @@
         <v>44151.457890821759</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C251" s="4">
         <v>44151</v>
@@ -7027,7 +7028,7 @@
         <v>44158.51839168981</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C252" s="4">
         <v>44158</v>
@@ -7053,7 +7054,7 @@
         <v>44165.524150659723</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C253" s="4">
         <v>44165</v>
@@ -7079,7 +7080,7 @@
         <v>44172.530058761578</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C254" s="4">
         <v>44172</v>
@@ -7105,7 +7106,7 @@
         <v>44179.34461644676</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="C255" s="4">
         <v>44179</v>
@@ -7365,7 +7366,7 @@
         <v>44105.542706782406</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C265" s="4">
         <v>44101</v>
@@ -7391,7 +7392,7 @@
         <v>44137.44924386574</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C266" s="4">
         <v>44137</v>
@@ -7417,7 +7418,7 @@
         <v>44150.689032789349</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C267" s="4">
         <v>44145</v>
@@ -7443,7 +7444,7 @@
         <v>44150.688578043977</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C268" s="4">
         <v>44146</v>
@@ -7469,7 +7470,7 @@
         <v>44150.688017326393</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C269" s="4">
         <v>44147</v>
@@ -7495,7 +7496,7 @@
         <v>44150.687642418983</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C270" s="4">
         <v>44148</v>
@@ -7521,7 +7522,7 @@
         <v>44150.687151736114</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C271" s="4">
         <v>44149</v>
@@ -7547,7 +7548,7 @@
         <v>44137.449862384259</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C272" s="4">
         <v>44161</v>
@@ -7573,7 +7574,7 @@
         <v>44177.695777592591</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C273" s="4">
         <v>44171</v>
@@ -7599,7 +7600,7 @@
         <v>44177.69503584491</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C274" s="4">
         <v>44177</v>
@@ -7625,7 +7626,7 @@
         <v>44105.62680456019</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C275" s="4">
         <v>44101</v>
@@ -7651,7 +7652,7 @@
         <v>44109.917615902777</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C276" s="4">
         <v>44108</v>
@@ -7677,7 +7678,7 @@
         <v>44115.82199217593</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C277" s="4">
         <v>44115</v>
@@ -7703,7 +7704,7 @@
         <v>44123.365985509256</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C278" s="4">
         <v>44122</v>
@@ -7729,7 +7730,7 @@
         <v>44129.92176438657</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C279" s="4">
         <v>44129</v>
@@ -7755,7 +7756,7 @@
         <v>44137.362702395832</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C280" s="4">
         <v>44136</v>
@@ -7781,7 +7782,7 @@
         <v>44145.509063472222</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C281" s="4">
         <v>44143</v>
@@ -7807,7 +7808,7 @@
         <v>44153.335539374995</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C282" s="4">
         <v>44150</v>
@@ -7833,7 +7834,7 @@
         <v>44158.529567141202</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C283" s="4">
         <v>44157</v>
@@ -7859,7 +7860,7 @@
         <v>44164.944532361114</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C284" s="4">
         <v>44164</v>
@@ -7885,7 +7886,7 @@
         <v>44172.50804591435</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C285" s="4">
         <v>44171</v>
@@ -7911,7 +7912,7 @@
         <v>44179.331935243055</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C286" s="4">
         <v>44178</v>
@@ -7937,7 +7938,7 @@
         <v>44127.324200810181</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C287" s="4">
         <v>44127</v>
@@ -7963,7 +7964,7 @@
         <v>44102.589760300922</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C288" s="4">
         <v>44102</v>
@@ -7989,7 +7990,7 @@
         <v>44105.836691863427</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C289" s="4">
         <v>44105</v>
@@ -8015,7 +8016,7 @@
         <v>44109.191235763894</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C290" s="4">
         <v>44108</v>
@@ -8041,7 +8042,7 @@
         <v>44117.98542636574</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C291" s="4">
         <v>44117</v>
@@ -8067,7 +8068,7 @@
         <v>44101.856247870368</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C292" s="4">
         <v>44101</v>
@@ -8093,7 +8094,7 @@
         <v>44109.259024965279</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C293" s="4">
         <v>44109</v>
@@ -8119,7 +8120,7 @@
         <v>44116.297932881949</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C294" s="4">
         <v>44115</v>
@@ -8145,7 +8146,7 @@
         <v>44132.338669247685</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C295" s="4">
         <v>44129</v>
@@ -8171,7 +8172,7 @@
         <v>44147.661144803242</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C296" s="4">
         <v>44143</v>
@@ -8197,7 +8198,7 @@
         <v>44151.878340694442</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C297" s="4">
         <v>44150</v>
@@ -8223,7 +8224,7 @@
         <v>44164.803159918985</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C298" s="4">
         <v>44164</v>
@@ -8249,7 +8250,7 @@
         <v>44171.470150231486</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C299" s="4">
         <v>44171</v>
@@ -8275,7 +8276,7 @@
         <v>44178.566052106486</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C300" s="4">
         <v>44178</v>
